--- a/TempFiles/bac/bac_sentiment_analysis_final.xlsx
+++ b/TempFiles/bac/bac_sentiment_analysis_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C434"/>
+  <dimension ref="A1:C436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-03-12</t>
+          <t>2023-03-14</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.0002</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-03-11</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2881</v>
+        <v>0.0449</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-03-12</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2122</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-03-09</t>
+          <t>2023-03-11</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0752</v>
+        <v>0.2881</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.078</v>
+        <v>0.2122</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-03-07</t>
+          <t>2023-03-09</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0876</v>
+        <v>0.0752</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-03-06</t>
+          <t>2023-03-08</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1711</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-03-05</t>
+          <t>2023-03-07</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1545</v>
+        <v>0.0876</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-03-04</t>
+          <t>2023-03-06</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1383</v>
+        <v>0.1711</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-03-03</t>
+          <t>2023-03-05</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0961</v>
+        <v>0.1545</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-03-02</t>
+          <t>2023-03-04</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1457</v>
+        <v>0.1383</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2023-03-03</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1862</v>
+        <v>0.0961</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-02-28</t>
+          <t>2023-03-02</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1005</v>
+        <v>0.1457</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-02-27</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.133</v>
+        <v>0.1862</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-02-26</t>
+          <t>2023-02-28</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1726</v>
+        <v>0.1005</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-02-25</t>
+          <t>2023-02-27</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1891</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-02-26</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.1726</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-02-23</t>
+          <t>2023-02-25</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.1831</v>
+        <v>0.1891</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-02-22</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1771</v>
+        <v>0.06569999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -698,11 +698,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-02-21</t>
+          <t>2023-02-23</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.1013</v>
+        <v>0.1831</v>
       </c>
     </row>
     <row r="22">
@@ -711,11 +711,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>2023-02-22</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.22</v>
+        <v>0.1771</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-02-19</t>
+          <t>2023-02-21</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1792</v>
+        <v>0.1013</v>
       </c>
     </row>
     <row r="24">
@@ -737,11 +737,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-02-18</t>
+          <t>2023-02-20</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1282</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="25">
@@ -750,11 +750,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-02-17</t>
+          <t>2023-02-19</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.098</v>
+        <v>0.1792</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-02-16</t>
+          <t>2023-02-18</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.1403</v>
+        <v>0.1282</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-02-15</t>
+          <t>2023-02-17</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.1897</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-02-14</t>
+          <t>2023-02-16</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1083</v>
+        <v>0.1403</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-02-15</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.1317</v>
+        <v>0.1897</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2023-02-14</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.1898</v>
+        <v>0.1083</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-02-11</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.1573</v>
+        <v>0.1317</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-02-10</t>
+          <t>2023-02-12</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1239</v>
+        <v>0.1898</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-02-09</t>
+          <t>2023-02-11</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1669</v>
+        <v>0.1573</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-02-08</t>
+          <t>2023-02-10</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.1257</v>
+        <v>0.1239</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-09</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0472</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-02-06</t>
+          <t>2023-02-08</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.06619999999999999</v>
+        <v>0.1257</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-02-05</t>
+          <t>2023-02-07</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0479</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-02-04</t>
+          <t>2023-02-06</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.1157</v>
+        <v>0.06619999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +932,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023-02-03</t>
+          <t>2023-02-05</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.116</v>
+        <v>0.0479</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023-02-02</t>
+          <t>2023-02-04</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.1554</v>
+        <v>0.1157</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>2023-02-03</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.1754</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2023-01-31</t>
+          <t>2023-02-02</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.0583</v>
+        <v>0.1554</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-01-30</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.1534</v>
+        <v>0.1754</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2023-01-29</t>
+          <t>2023-01-31</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.1536</v>
+        <v>0.0583</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2023-01-30</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.0863</v>
+        <v>0.1534</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2023-01-27</t>
+          <t>2023-01-29</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.1669</v>
+        <v>0.1536</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2023-01-26</t>
+          <t>2023-01-28</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0835</v>
+        <v>0.0863</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2023-01-25</t>
+          <t>2023-01-27</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.07630000000000001</v>
+        <v>0.1669</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-01-26</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.0606</v>
+        <v>0.0835</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2023-01-23</t>
+          <t>2023-01-25</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.0784</v>
+        <v>0.07630000000000001</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2023-01-22</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.09420000000000001</v>
+        <v>0.0606</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2023-01-21</t>
+          <t>2023-01-23</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.077</v>
+        <v>0.0784</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2023-01-20</t>
+          <t>2023-01-22</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.2588</v>
+        <v>-0.09420000000000001</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2023-01-19</t>
+          <t>2023-01-21</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-0.5181</v>
+        <v>-0.077</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2023-01-18</t>
+          <t>2023-01-20</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.3793</v>
+        <v>-0.2588</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2023-01-17</t>
+          <t>2023-01-19</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.1083</v>
+        <v>-0.5181</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-01-18</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.1266</v>
+        <v>-0.3793</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2023-01-15</t>
+          <t>2023-01-17</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.1445</v>
+        <v>0.1083</v>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2023-01-14</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.1644</v>
+        <v>0.1266</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2023-01-13</t>
+          <t>2023-01-15</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.1204</v>
+        <v>0.1445</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2023-01-12</t>
+          <t>2023-01-14</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.1304</v>
+        <v>0.1644</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-01-13</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.1443</v>
+        <v>0.1204</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2023-01-10</t>
+          <t>2023-01-12</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.0912</v>
+        <v>0.1304</v>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2023-01-09</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.063</v>
+        <v>0.1443</v>
       </c>
     </row>
     <row r="65">
@@ -1270,11 +1270,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2023-01-08</t>
+          <t>2023-01-10</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.0897</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="66">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2023-01-07</t>
+          <t>2023-01-09</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.0731</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1296,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2023-01-06</t>
+          <t>2023-01-08</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.1346</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="68">
@@ -1309,11 +1309,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2023-01-05</t>
+          <t>2023-01-07</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.1566</v>
+        <v>0.0731</v>
       </c>
     </row>
     <row r="69">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2023-01-04</t>
+          <t>2023-01-06</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.1301</v>
+        <v>0.1346</v>
       </c>
     </row>
     <row r="70">
@@ -1335,11 +1335,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2023-01-05</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.1442</v>
+        <v>0.1566</v>
       </c>
     </row>
     <row r="71">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2023-01-02</t>
+          <t>2023-01-04</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.1637</v>
+        <v>0.1301</v>
       </c>
     </row>
     <row r="72">
@@ -1361,11 +1361,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2023-01-01</t>
+          <t>2023-01-03</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.1915</v>
+        <v>0.1442</v>
       </c>
     </row>
     <row r="73">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>2023-01-02</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.1902</v>
+        <v>0.1637</v>
       </c>
     </row>
     <row r="74">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2022-12-30</t>
+          <t>2023-01-01</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.1217</v>
+        <v>0.1915</v>
       </c>
     </row>
     <row r="75">
@@ -1400,11 +1400,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2022-12-29</t>
+          <t>2022-12-31</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.125</v>
+        <v>0.1902</v>
       </c>
     </row>
     <row r="76">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2022-12-28</t>
+          <t>2022-12-30</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.1557</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="77">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2022-12-27</t>
+          <t>2022-12-29</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.1765</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="78">
@@ -1439,11 +1439,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2022-12-26</t>
+          <t>2022-12-28</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.1468</v>
+        <v>0.1557</v>
       </c>
     </row>
     <row r="79">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2022-12-25</t>
+          <t>2022-12-27</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.2611</v>
+        <v>0.1765</v>
       </c>
     </row>
     <row r="80">
@@ -1465,11 +1465,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2022-12-24</t>
+          <t>2022-12-26</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.248</v>
+        <v>0.1468</v>
       </c>
     </row>
     <row r="81">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2022-12-23</t>
+          <t>2022-12-25</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.1094</v>
+        <v>0.2611</v>
       </c>
     </row>
     <row r="82">
@@ -1491,11 +1491,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2022-12-24</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.1039</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="83">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2022-12-21</t>
+          <t>2022-12-23</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.1631</v>
+        <v>0.1094</v>
       </c>
     </row>
     <row r="84">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2022-12-20</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.1384</v>
+        <v>0.1039</v>
       </c>
     </row>
     <row r="85">
@@ -1530,11 +1530,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2022-12-21</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.1095</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="86">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2022-12-18</t>
+          <t>2022-12-20</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.1186</v>
+        <v>0.1384</v>
       </c>
     </row>
     <row r="87">
@@ -1556,11 +1556,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2022-12-17</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.0713</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="88">
@@ -1569,11 +1569,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2022-12-16</t>
+          <t>2022-12-18</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-0.0168</v>
+        <v>0.1186</v>
       </c>
     </row>
     <row r="89">
@@ -1582,11 +1582,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2022-12-17</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.1702</v>
+        <v>0.0713</v>
       </c>
     </row>
     <row r="90">
@@ -1595,11 +1595,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2022-12-14</t>
+          <t>2022-12-16</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.1605</v>
+        <v>-0.0168</v>
       </c>
     </row>
     <row r="91">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2022-12-13</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.1794</v>
+        <v>0.1702</v>
       </c>
     </row>
     <row r="92">
@@ -1621,11 +1621,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2022-12-12</t>
+          <t>2022-12-14</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.1273</v>
+        <v>0.1605</v>
       </c>
     </row>
     <row r="93">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2022-12-11</t>
+          <t>2022-12-13</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.1329</v>
+        <v>0.1794</v>
       </c>
     </row>
     <row r="94">
@@ -1647,11 +1647,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2022-12-10</t>
+          <t>2022-12-12</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.2105</v>
+        <v>0.1273</v>
       </c>
     </row>
     <row r="95">
@@ -1660,11 +1660,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2022-12-09</t>
+          <t>2022-12-11</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.0992</v>
+        <v>0.1329</v>
       </c>
     </row>
     <row r="96">
@@ -1673,11 +1673,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-10</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.1389</v>
+        <v>0.2105</v>
       </c>
     </row>
     <row r="97">
@@ -1686,11 +1686,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-12-09</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.1023</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="98">
@@ -1699,11 +1699,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2022-12-06</t>
+          <t>2022-12-08</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.1182</v>
+        <v>0.1389</v>
       </c>
     </row>
     <row r="99">
@@ -1712,11 +1712,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2022-12-05</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.1116</v>
+        <v>0.1023</v>
       </c>
     </row>
     <row r="100">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2022-12-04</t>
+          <t>2022-12-06</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.1467</v>
+        <v>0.1182</v>
       </c>
     </row>
     <row r="101">
@@ -1738,11 +1738,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2022-12-03</t>
+          <t>2022-12-05</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.1235</v>
+        <v>0.1116</v>
       </c>
     </row>
     <row r="102">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2022-12-02</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.1376</v>
+        <v>0.1467</v>
       </c>
     </row>
     <row r="103">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2022-12-01</t>
+          <t>2022-12-03</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.1447</v>
+        <v>0.1235</v>
       </c>
     </row>
     <row r="104">
@@ -1777,11 +1777,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2022-11-30</t>
+          <t>2022-12-02</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.08690000000000001</v>
+        <v>0.1376</v>
       </c>
     </row>
     <row r="105">
@@ -1790,11 +1790,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2022-11-29</t>
+          <t>2022-12-01</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.1048</v>
+        <v>0.1447</v>
       </c>
     </row>
     <row r="106">
@@ -1803,11 +1803,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2022-11-28</t>
+          <t>2022-11-30</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.1411</v>
+        <v>0.08690000000000001</v>
       </c>
     </row>
     <row r="107">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2022-11-27</t>
+          <t>2022-11-29</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.1232</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="108">
@@ -1829,11 +1829,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2022-11-26</t>
+          <t>2022-11-28</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.1443</v>
+        <v>0.1411</v>
       </c>
     </row>
     <row r="109">
@@ -1842,11 +1842,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-11-27</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.1169</v>
+        <v>0.1232</v>
       </c>
     </row>
     <row r="110">
@@ -1855,11 +1855,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2022-11-24</t>
+          <t>2022-11-26</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.2053</v>
+        <v>0.1443</v>
       </c>
     </row>
     <row r="111">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2022-11-23</t>
+          <t>2022-11-25</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.1676</v>
+        <v>0.1169</v>
       </c>
     </row>
     <row r="112">
@@ -1881,11 +1881,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-11-24</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.1978</v>
+        <v>0.2053</v>
       </c>
     </row>
     <row r="113">
@@ -1894,11 +1894,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2022-11-21</t>
+          <t>2022-11-23</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.1855</v>
+        <v>0.1676</v>
       </c>
     </row>
     <row r="114">
@@ -1907,11 +1907,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2022-11-20</t>
+          <t>2022-11-22</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.177</v>
+        <v>0.1978</v>
       </c>
     </row>
     <row r="115">
@@ -1920,11 +1920,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2022-11-19</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.1612</v>
+        <v>0.1855</v>
       </c>
     </row>
     <row r="116">
@@ -1933,11 +1933,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2022-11-18</t>
+          <t>2022-11-20</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.1491</v>
+        <v>0.177</v>
       </c>
     </row>
     <row r="117">
@@ -1946,11 +1946,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2022-11-19</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.199</v>
+        <v>0.1612</v>
       </c>
     </row>
     <row r="118">
@@ -1959,11 +1959,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2022-11-16</t>
+          <t>2022-11-18</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.1702</v>
+        <v>0.1491</v>
       </c>
     </row>
     <row r="119">
@@ -1972,11 +1972,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2022-11-15</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.1277</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="120">
@@ -1985,11 +1985,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2022-11-16</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.1598</v>
+        <v>0.1702</v>
       </c>
     </row>
     <row r="121">
@@ -1998,11 +1998,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2022-11-13</t>
+          <t>2022-11-15</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.1462</v>
+        <v>0.1277</v>
       </c>
     </row>
     <row r="122">
@@ -2011,11 +2011,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2022-11-12</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.1511</v>
+        <v>0.1598</v>
       </c>
     </row>
     <row r="123">
@@ -2024,11 +2024,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2022-11-11</t>
+          <t>2022-11-13</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.1518</v>
+        <v>0.1462</v>
       </c>
     </row>
     <row r="124">
@@ -2037,11 +2037,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2022-11-10</t>
+          <t>2022-11-12</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.1544</v>
+        <v>0.1511</v>
       </c>
     </row>
     <row r="125">
@@ -2050,11 +2050,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2022-11-09</t>
+          <t>2022-11-11</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.1752</v>
+        <v>0.1518</v>
       </c>
     </row>
     <row r="126">
@@ -2063,11 +2063,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2022-11-08</t>
+          <t>2022-11-10</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.1875</v>
+        <v>0.1544</v>
       </c>
     </row>
     <row r="127">
@@ -2076,11 +2076,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2022-11-07</t>
+          <t>2022-11-09</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.1583</v>
+        <v>0.1752</v>
       </c>
     </row>
     <row r="128">
@@ -2089,11 +2089,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2022-11-06</t>
+          <t>2022-11-08</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.1479</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="129">
@@ -2102,11 +2102,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2022-11-05</t>
+          <t>2022-11-07</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.1606</v>
+        <v>0.1583</v>
       </c>
     </row>
     <row r="130">
@@ -2115,11 +2115,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2022-11-04</t>
+          <t>2022-11-06</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.1216</v>
+        <v>0.1479</v>
       </c>
     </row>
     <row r="131">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2022-11-03</t>
+          <t>2022-11-05</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.1498</v>
+        <v>0.1606</v>
       </c>
     </row>
     <row r="132">
@@ -2141,11 +2141,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2022-11-04</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.1402</v>
+        <v>0.1216</v>
       </c>
     </row>
     <row r="133">
@@ -2154,11 +2154,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2022-11-01</t>
+          <t>2022-11-03</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.1384</v>
+        <v>0.1498</v>
       </c>
     </row>
     <row r="134">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2022-10-31</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.1284</v>
+        <v>0.1402</v>
       </c>
     </row>
     <row r="135">
@@ -2180,11 +2180,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2022-10-30</t>
+          <t>2022-11-01</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.1251</v>
+        <v>0.1384</v>
       </c>
     </row>
     <row r="136">
@@ -2193,11 +2193,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2022-10-29</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.1138</v>
+        <v>0.1284</v>
       </c>
     </row>
     <row r="137">
@@ -2206,11 +2206,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2022-10-28</t>
+          <t>2022-10-30</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.1393</v>
+        <v>0.1251</v>
       </c>
     </row>
     <row r="138">
@@ -2219,11 +2219,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2022-10-27</t>
+          <t>2022-10-29</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.2281</v>
+        <v>0.1138</v>
       </c>
     </row>
     <row r="139">
@@ -2232,11 +2232,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-28</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.1628</v>
+        <v>0.1393</v>
       </c>
     </row>
     <row r="140">
@@ -2245,11 +2245,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2022-10-25</t>
+          <t>2022-10-27</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.1785</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="141">
@@ -2258,11 +2258,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2022-10-24</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.1396</v>
+        <v>0.1628</v>
       </c>
     </row>
     <row r="142">
@@ -2271,11 +2271,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2022-10-23</t>
+          <t>2022-10-25</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.1271</v>
+        <v>0.1785</v>
       </c>
     </row>
     <row r="143">
@@ -2284,11 +2284,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2022-10-24</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.166</v>
+        <v>0.1396</v>
       </c>
     </row>
     <row r="144">
@@ -2297,11 +2297,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2022-10-21</t>
+          <t>2022-10-23</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.1114</v>
+        <v>0.1271</v>
       </c>
     </row>
     <row r="145">
@@ -2310,11 +2310,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2022-10-22</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.1437</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="146">
@@ -2323,11 +2323,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2022-10-19</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.1791</v>
+        <v>0.1114</v>
       </c>
     </row>
     <row r="147">
@@ -2336,11 +2336,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.2157</v>
+        <v>0.1437</v>
       </c>
     </row>
     <row r="148">
@@ -2349,11 +2349,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2022-10-17</t>
+          <t>2022-10-19</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>0.1602</v>
+        <v>0.1791</v>
       </c>
     </row>
     <row r="149">
@@ -2362,11 +2362,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2022-10-16</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>0.0916</v>
+        <v>0.2157</v>
       </c>
     </row>
     <row r="150">
@@ -2375,11 +2375,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2022-10-15</t>
+          <t>2022-10-17</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>0.1217</v>
+        <v>0.1602</v>
       </c>
     </row>
     <row r="151">
@@ -2388,11 +2388,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2022-10-14</t>
+          <t>2022-10-16</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>0.106</v>
+        <v>0.0916</v>
       </c>
     </row>
     <row r="152">
@@ -2401,11 +2401,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2022-10-13</t>
+          <t>2022-10-15</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.0553</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="153">
@@ -2414,11 +2414,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2022-10-12</t>
+          <t>2022-10-14</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>0.1715</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="154">
@@ -2427,11 +2427,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2022-10-11</t>
+          <t>2022-10-13</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.1311</v>
+        <v>0.0553</v>
       </c>
     </row>
     <row r="155">
@@ -2440,11 +2440,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-12</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0.1265</v>
+        <v>0.1715</v>
       </c>
     </row>
     <row r="156">
@@ -2453,11 +2453,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2022-10-09</t>
+          <t>2022-10-11</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>0.1368</v>
+        <v>0.1311</v>
       </c>
     </row>
     <row r="157">
@@ -2466,11 +2466,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2022-10-08</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>0.1084</v>
+        <v>0.1265</v>
       </c>
     </row>
     <row r="158">
@@ -2479,11 +2479,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2022-10-07</t>
+          <t>2022-10-09</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.092</v>
+        <v>0.1368</v>
       </c>
     </row>
     <row r="159">
@@ -2492,11 +2492,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2022-10-06</t>
+          <t>2022-10-08</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.0992</v>
+        <v>0.1084</v>
       </c>
     </row>
     <row r="160">
@@ -2505,11 +2505,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2022-10-05</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.1174</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="161">
@@ -2518,11 +2518,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-06</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.09719999999999999</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="162">
@@ -2531,11 +2531,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2022-10-03</t>
+          <t>2022-10-05</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>0.0771</v>
+        <v>0.1174</v>
       </c>
     </row>
     <row r="163">
@@ -2544,11 +2544,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2022-10-02</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0.0901</v>
+        <v>0.09719999999999999</v>
       </c>
     </row>
     <row r="164">
@@ -2557,11 +2557,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2022-10-01</t>
+          <t>2022-10-03</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.1068</v>
+        <v>0.0771</v>
       </c>
     </row>
     <row r="165">
@@ -2570,11 +2570,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>2022-10-02</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0.1059</v>
+        <v>0.0901</v>
       </c>
     </row>
     <row r="166">
@@ -2583,11 +2583,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2022-09-29</t>
+          <t>2022-10-01</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>0.0919</v>
+        <v>0.1068</v>
       </c>
     </row>
     <row r="167">
@@ -2596,11 +2596,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2022-09-28</t>
+          <t>2022-09-30</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0.0975</v>
+        <v>0.1059</v>
       </c>
     </row>
     <row r="168">
@@ -2609,11 +2609,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2022-09-29</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.1454</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="169">
@@ -2622,11 +2622,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2022-09-28</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.1445</v>
+        <v>0.0975</v>
       </c>
     </row>
     <row r="170">
@@ -2635,11 +2635,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2022-09-25</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.1783</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="171">
@@ -2648,11 +2648,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2022-09-24</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.1984</v>
+        <v>0.1445</v>
       </c>
     </row>
     <row r="172">
@@ -2661,11 +2661,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2022-09-23</t>
+          <t>2022-09-25</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.0738</v>
+        <v>0.1783</v>
       </c>
     </row>
     <row r="173">
@@ -2674,11 +2674,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2022-09-22</t>
+          <t>2022-09-24</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>0.0804</v>
+        <v>0.1984</v>
       </c>
     </row>
     <row r="174">
@@ -2687,11 +2687,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2022-09-23</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>0.1218</v>
+        <v>0.0738</v>
       </c>
     </row>
     <row r="175">
@@ -2700,11 +2700,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2022-09-22</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.1526</v>
+        <v>0.0804</v>
       </c>
     </row>
     <row r="176">
@@ -2713,11 +2713,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2022-09-19</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.1323</v>
+        <v>0.1218</v>
       </c>
     </row>
     <row r="177">
@@ -2726,11 +2726,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2022-09-18</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.2102</v>
+        <v>0.1526</v>
       </c>
     </row>
     <row r="178">
@@ -2739,11 +2739,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2022-09-17</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.1786</v>
+        <v>0.1323</v>
       </c>
     </row>
     <row r="179">
@@ -2752,11 +2752,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2022-09-16</t>
+          <t>2022-09-18</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>0.2267</v>
+        <v>0.2102</v>
       </c>
     </row>
     <row r="180">
@@ -2765,11 +2765,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2022-09-17</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.1426</v>
+        <v>0.1786</v>
       </c>
     </row>
     <row r="181">
@@ -2778,11 +2778,11 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2022-09-14</t>
+          <t>2022-09-16</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.1802</v>
+        <v>0.2267</v>
       </c>
     </row>
     <row r="182">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2022-09-13</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>0.1253</v>
+        <v>0.1426</v>
       </c>
     </row>
     <row r="183">
@@ -2804,11 +2804,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2022-09-12</t>
+          <t>2022-09-14</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>0.1791</v>
+        <v>0.1802</v>
       </c>
     </row>
     <row r="184">
@@ -2817,11 +2817,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2022-09-11</t>
+          <t>2022-09-13</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>0.245</v>
+        <v>0.1253</v>
       </c>
     </row>
     <row r="185">
@@ -2830,11 +2830,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2022-09-10</t>
+          <t>2022-09-12</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.176</v>
+        <v>0.1791</v>
       </c>
     </row>
     <row r="186">
@@ -2843,11 +2843,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2022-09-09</t>
+          <t>2022-09-11</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.1984</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="187">
@@ -2856,11 +2856,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2022-09-08</t>
+          <t>2022-09-10</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.181</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="188">
@@ -2869,11 +2869,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2022-09-07</t>
+          <t>2022-09-09</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>0.1778</v>
+        <v>0.1984</v>
       </c>
     </row>
     <row r="189">
@@ -2882,11 +2882,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2022-09-06</t>
+          <t>2022-09-08</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0.1275</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="190">
@@ -2895,11 +2895,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2022-09-05</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.1545</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="191">
@@ -2908,11 +2908,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2022-09-04</t>
+          <t>2022-09-06</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>0.2289</v>
+        <v>0.1275</v>
       </c>
     </row>
     <row r="192">
@@ -2921,11 +2921,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2022-09-03</t>
+          <t>2022-09-05</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>0.2275</v>
+        <v>0.1545</v>
       </c>
     </row>
     <row r="193">
@@ -2934,11 +2934,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2022-09-02</t>
+          <t>2022-09-04</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>0.1474</v>
+        <v>0.2289</v>
       </c>
     </row>
     <row r="194">
@@ -2947,11 +2947,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2022-09-01</t>
+          <t>2022-09-03</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>0.1983</v>
+        <v>0.2275</v>
       </c>
     </row>
     <row r="195">
@@ -2960,11 +2960,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
+          <t>2022-09-02</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.1317</v>
+        <v>0.1474</v>
       </c>
     </row>
     <row r="196">
@@ -2973,11 +2973,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2022-09-01</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>0.1839</v>
+        <v>0.1983</v>
       </c>
     </row>
     <row r="197">
@@ -2986,11 +2986,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2022-08-31</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.26</v>
+        <v>0.1317</v>
       </c>
     </row>
     <row r="198">
@@ -2999,11 +2999,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2022-08-28</t>
+          <t>2022-08-30</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.1889</v>
+        <v>0.1839</v>
       </c>
     </row>
     <row r="199">
@@ -3012,11 +3012,11 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2022-08-27</t>
+          <t>2022-08-29</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.1319</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="200">
@@ -3025,11 +3025,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2022-08-26</t>
+          <t>2022-08-28</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.1454</v>
+        <v>0.1889</v>
       </c>
     </row>
     <row r="201">
@@ -3038,11 +3038,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2022-08-25</t>
+          <t>2022-08-27</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.2176</v>
+        <v>0.1319</v>
       </c>
     </row>
     <row r="202">
@@ -3051,11 +3051,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2022-08-24</t>
+          <t>2022-08-26</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>0.274</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="203">
@@ -3064,11 +3064,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2022-08-23</t>
+          <t>2022-08-25</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.2243</v>
+        <v>0.2176</v>
       </c>
     </row>
     <row r="204">
@@ -3077,11 +3077,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2022-08-22</t>
+          <t>2022-08-24</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0.14</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="205">
@@ -3090,11 +3090,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2022-08-21</t>
+          <t>2022-08-23</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>0.1674</v>
+        <v>0.2243</v>
       </c>
     </row>
     <row r="206">
@@ -3103,11 +3103,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2022-08-20</t>
+          <t>2022-08-22</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>0.1331</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="207">
@@ -3116,11 +3116,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2022-08-19</t>
+          <t>2022-08-21</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>0.1526</v>
+        <v>0.1674</v>
       </c>
     </row>
     <row r="208">
@@ -3129,11 +3129,11 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-08-20</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>0.1739</v>
+        <v>0.1331</v>
       </c>
     </row>
     <row r="209">
@@ -3142,11 +3142,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2022-08-17</t>
+          <t>2022-08-19</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>0.1575</v>
+        <v>0.1526</v>
       </c>
     </row>
     <row r="210">
@@ -3155,11 +3155,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2022-08-16</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.182</v>
+        <v>0.1739</v>
       </c>
     </row>
     <row r="211">
@@ -3168,11 +3168,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2022-08-15</t>
+          <t>2022-08-17</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>0.1886</v>
+        <v>0.1575</v>
       </c>
     </row>
     <row r="212">
@@ -3181,11 +3181,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2022-08-14</t>
+          <t>2022-08-16</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0.1803</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="213">
@@ -3194,11 +3194,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-08-15</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>0.2761</v>
+        <v>0.1886</v>
       </c>
     </row>
     <row r="214">
@@ -3207,11 +3207,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2022-08-12</t>
+          <t>2022-08-14</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>0.1363</v>
+        <v>0.1803</v>
       </c>
     </row>
     <row r="215">
@@ -3220,11 +3220,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2022-08-11</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.1767</v>
+        <v>0.2761</v>
       </c>
     </row>
     <row r="216">
@@ -3233,11 +3233,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2022-08-10</t>
+          <t>2022-08-12</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.1267</v>
+        <v>0.1363</v>
       </c>
     </row>
     <row r="217">
@@ -3246,11 +3246,11 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2022-08-09</t>
+          <t>2022-08-11</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>0.199</v>
+        <v>0.1767</v>
       </c>
     </row>
     <row r="218">
@@ -3259,11 +3259,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2022-07-29</t>
+          <t>2022-08-10</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.2102</v>
+        <v>0.1267</v>
       </c>
     </row>
     <row r="219">
@@ -3272,11 +3272,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2022-07-28</t>
+          <t>2022-08-09</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.1581</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="220">
@@ -3285,11 +3285,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>2022-07-29</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>0.1596</v>
+        <v>0.2102</v>
       </c>
     </row>
     <row r="221">
@@ -3298,11 +3298,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2022-07-26</t>
+          <t>2022-07-28</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>0.1912</v>
+        <v>0.1581</v>
       </c>
     </row>
     <row r="222">
@@ -3311,11 +3311,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2022-07-25</t>
+          <t>2022-07-27</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.2349</v>
+        <v>0.1596</v>
       </c>
     </row>
     <row r="223">
@@ -3324,11 +3324,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2022-07-24</t>
+          <t>2022-07-26</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.1805</v>
+        <v>0.1912</v>
       </c>
     </row>
     <row r="224">
@@ -3337,11 +3337,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2022-07-23</t>
+          <t>2022-07-25</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.1081</v>
+        <v>0.2349</v>
       </c>
     </row>
     <row r="225">
@@ -3350,11 +3350,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2022-07-22</t>
+          <t>2022-07-24</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>0.1885</v>
+        <v>0.1805</v>
       </c>
     </row>
     <row r="226">
@@ -3363,11 +3363,11 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2022-07-21</t>
+          <t>2022-07-23</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>0.2106</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="227">
@@ -3376,11 +3376,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2022-07-20</t>
+          <t>2022-07-22</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>0.1889</v>
+        <v>0.1885</v>
       </c>
     </row>
     <row r="228">
@@ -3389,11 +3389,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2022-07-19</t>
+          <t>2022-07-21</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0.08690000000000001</v>
+        <v>0.2106</v>
       </c>
     </row>
     <row r="229">
@@ -3402,11 +3402,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2022-07-18</t>
+          <t>2022-07-20</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.1216</v>
+        <v>0.1889</v>
       </c>
     </row>
     <row r="230">
@@ -3415,11 +3415,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2022-07-17</t>
+          <t>2022-07-19</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.0809</v>
+        <v>0.08690000000000001</v>
       </c>
     </row>
     <row r="231">
@@ -3428,11 +3428,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2022-07-16</t>
+          <t>2022-07-18</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>0.0594</v>
+        <v>0.1216</v>
       </c>
     </row>
     <row r="232">
@@ -3441,11 +3441,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2022-07-15</t>
+          <t>2022-07-17</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>0.09719999999999999</v>
+        <v>0.0809</v>
       </c>
     </row>
     <row r="233">
@@ -3454,11 +3454,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2022-07-14</t>
+          <t>2022-07-16</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>0.1022</v>
+        <v>0.0594</v>
       </c>
     </row>
     <row r="234">
@@ -3467,11 +3467,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2022-07-13</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>0.1792</v>
+        <v>0.09719999999999999</v>
       </c>
     </row>
     <row r="235">
@@ -3480,11 +3480,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2022-07-12</t>
+          <t>2022-07-14</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.07480000000000001</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="236">
@@ -3493,11 +3493,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2022-07-11</t>
+          <t>2022-07-13</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>0.0926</v>
+        <v>0.1792</v>
       </c>
     </row>
     <row r="237">
@@ -3506,11 +3506,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2022-07-10</t>
+          <t>2022-07-12</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>0.1642</v>
+        <v>0.07480000000000001</v>
       </c>
     </row>
     <row r="238">
@@ -3519,11 +3519,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2022-07-09</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.1567</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="239">
@@ -3532,11 +3532,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2022-07-08</t>
+          <t>2022-07-10</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>0.1266</v>
+        <v>0.1642</v>
       </c>
     </row>
     <row r="240">
@@ -3545,11 +3545,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2022-07-07</t>
+          <t>2022-07-09</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>0.2081</v>
+        <v>0.1567</v>
       </c>
     </row>
     <row r="241">
@@ -3558,11 +3558,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2022-07-06</t>
+          <t>2022-07-08</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>0.109</v>
+        <v>0.1266</v>
       </c>
     </row>
     <row r="242">
@@ -3571,11 +3571,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2022-07-05</t>
+          <t>2022-07-07</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>0.2854</v>
+        <v>0.2081</v>
       </c>
     </row>
     <row r="243">
@@ -3584,11 +3584,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2022-07-04</t>
+          <t>2022-07-06</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.3446</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="244">
@@ -3597,11 +3597,11 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2022-07-03</t>
+          <t>2022-07-05</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>0.1015</v>
+        <v>0.2854</v>
       </c>
     </row>
     <row r="245">
@@ -3610,11 +3610,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2022-07-02</t>
+          <t>2022-07-04</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>0.1313</v>
+        <v>0.3446</v>
       </c>
     </row>
     <row r="246">
@@ -3623,11 +3623,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>2022-07-03</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>0.062</v>
+        <v>0.1015</v>
       </c>
     </row>
     <row r="247">
@@ -3636,11 +3636,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>2022-07-02</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>0.0741</v>
+        <v>0.1313</v>
       </c>
     </row>
     <row r="248">
@@ -3649,11 +3649,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>0.1193</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="249">
@@ -3662,11 +3662,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.0526</v>
+        <v>0.0741</v>
       </c>
     </row>
     <row r="250">
@@ -3675,11 +3675,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>0.0775</v>
+        <v>0.1193</v>
       </c>
     </row>
     <row r="251">
@@ -3688,11 +3688,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2022-06-26</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.034</v>
+        <v>0.0526</v>
       </c>
     </row>
     <row r="252">
@@ -3701,11 +3701,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0.0602</v>
+        <v>0.0775</v>
       </c>
     </row>
     <row r="253">
@@ -3714,11 +3714,11 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>2022-06-26</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>-0.008999999999999999</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="254">
@@ -3727,11 +3727,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.0477</v>
+        <v>0.0602</v>
       </c>
     </row>
     <row r="255">
@@ -3740,11 +3740,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>0.0589</v>
+        <v>-0.008999999999999999</v>
       </c>
     </row>
     <row r="256">
@@ -3753,11 +3753,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>0.0885</v>
+        <v>0.0477</v>
       </c>
     </row>
     <row r="257">
@@ -3766,11 +3766,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>0.1135</v>
+        <v>0.0589</v>
       </c>
     </row>
     <row r="258">
@@ -3779,11 +3779,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2022-06-19</t>
+          <t>2022-06-21</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>0.1715</v>
+        <v>0.0885</v>
       </c>
     </row>
     <row r="259">
@@ -3792,11 +3792,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2022-06-18</t>
+          <t>2022-06-20</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>0.1285</v>
+        <v>0.1135</v>
       </c>
     </row>
     <row r="260">
@@ -3805,11 +3805,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>2022-06-19</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>0.1063</v>
+        <v>0.1715</v>
       </c>
     </row>
     <row r="261">
@@ -3818,11 +3818,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>0.1612</v>
+        <v>0.1285</v>
       </c>
     </row>
     <row r="262">
@@ -3831,11 +3831,11 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>2022-06-17</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.1201</v>
+        <v>0.1063</v>
       </c>
     </row>
     <row r="263">
@@ -3844,11 +3844,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>2022-06-16</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>0.1201</v>
+        <v>0.1612</v>
       </c>
     </row>
     <row r="264">
@@ -3857,11 +3857,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>0.0815</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="265">
@@ -3870,11 +3870,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2022-06-12</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>0.1156</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="266">
@@ -3883,11 +3883,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2022-06-13</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0.0948</v>
+        <v>0.0815</v>
       </c>
     </row>
     <row r="267">
@@ -3896,11 +3896,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2022-06-10</t>
+          <t>2022-06-12</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0.1046</v>
+        <v>0.1156</v>
       </c>
     </row>
     <row r="268">
@@ -3909,11 +3909,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2022-06-09</t>
+          <t>2022-06-11</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>0.0655</v>
+        <v>0.0948</v>
       </c>
     </row>
     <row r="269">
@@ -3922,11 +3922,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2022-06-10</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0.0413</v>
+        <v>0.1046</v>
       </c>
     </row>
     <row r="270">
@@ -3935,11 +3935,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>0.0143</v>
+        <v>0.0655</v>
       </c>
     </row>
     <row r="271">
@@ -3948,11 +3948,11 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.1302</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="272">
@@ -3961,11 +3961,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2022-06-05</t>
+          <t>2022-06-07</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>0.202</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="273">
@@ -3974,11 +3974,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2022-06-04</t>
+          <t>2022-06-06</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0.064</v>
+        <v>0.1302</v>
       </c>
     </row>
     <row r="274">
@@ -3987,11 +3987,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>2022-06-05</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>-0.0425</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="275">
@@ -4000,11 +4000,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2022-06-02</t>
+          <t>2022-06-04</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0.07770000000000001</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="276">
@@ -4013,11 +4013,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2022-06-01</t>
+          <t>2022-06-03</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>0.0386</v>
+        <v>-0.0425</v>
       </c>
     </row>
     <row r="277">
@@ -4026,11 +4026,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>2022-06-02</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>-0.0013</v>
+        <v>0.07770000000000001</v>
       </c>
     </row>
     <row r="278">
@@ -4039,11 +4039,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2022-05-30</t>
+          <t>2022-06-01</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>0.1411</v>
+        <v>0.0386</v>
       </c>
     </row>
     <row r="279">
@@ -4052,11 +4052,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2022-05-29</t>
+          <t>2022-05-31</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>-0.0013</v>
       </c>
     </row>
     <row r="280">
@@ -4065,11 +4065,11 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2022-05-28</t>
+          <t>2022-05-30</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>0.1411</v>
       </c>
     </row>
     <row r="281">
@@ -4078,11 +4078,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2022-05-27</t>
+          <t>2022-05-29</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>0.1999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -4091,11 +4091,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>0.2941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -4104,11 +4104,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2022-05-25</t>
+          <t>2022-05-27</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>0.1152</v>
+        <v>0.1999</v>
       </c>
     </row>
     <row r="284">
@@ -4117,11 +4117,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2022-05-24</t>
+          <t>2022-05-26</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.1372</v>
+        <v>0.2941</v>
       </c>
     </row>
     <row r="285">
@@ -4130,11 +4130,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2022-05-23</t>
+          <t>2022-05-25</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>0.1617</v>
+        <v>0.1152</v>
       </c>
     </row>
     <row r="286">
@@ -4143,11 +4143,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-05-24</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0.3402</v>
+        <v>0.1372</v>
       </c>
     </row>
     <row r="287">
@@ -4156,11 +4156,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2022-05-21</t>
+          <t>2022-05-23</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0.2088</v>
+        <v>0.1617</v>
       </c>
     </row>
     <row r="288">
@@ -4169,11 +4169,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2022-05-20</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.0707</v>
+        <v>0.3402</v>
       </c>
     </row>
     <row r="289">
@@ -4182,11 +4182,11 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-05-21</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>0.2639</v>
+        <v>0.2088</v>
       </c>
     </row>
     <row r="290">
@@ -4195,11 +4195,11 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2022-05-18</t>
+          <t>2022-05-20</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>-0.0362</v>
+        <v>0.0707</v>
       </c>
     </row>
     <row r="291">
@@ -4208,11 +4208,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2022-05-17</t>
+          <t>2022-05-19</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0.0664</v>
+        <v>0.2639</v>
       </c>
     </row>
     <row r="292">
@@ -4221,11 +4221,11 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2022-05-16</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>-0.1211</v>
+        <v>-0.0362</v>
       </c>
     </row>
     <row r="293">
@@ -4234,11 +4234,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2022-05-15</t>
+          <t>2022-05-17</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>0.4824</v>
+        <v>0.0664</v>
       </c>
     </row>
     <row r="294">
@@ -4247,11 +4247,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2022-05-14</t>
+          <t>2022-05-16</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>0</v>
+        <v>-0.1211</v>
       </c>
     </row>
     <row r="295">
@@ -4260,11 +4260,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2022-05-13</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>0.0086</v>
+        <v>0.4824</v>
       </c>
     </row>
     <row r="296">
@@ -4273,11 +4273,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2022-05-12</t>
+          <t>2022-05-14</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>0.0476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -4286,11 +4286,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2022-05-13</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>-0.0042</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="298">
@@ -4299,11 +4299,11 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-05-12</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>-0.0397</v>
+        <v>0.0476</v>
       </c>
     </row>
     <row r="299">
@@ -4312,11 +4312,11 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2022-05-09</t>
+          <t>2022-05-11</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>-0.0041</v>
+        <v>-0.0042</v>
       </c>
     </row>
     <row r="300">
@@ -4325,11 +4325,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-05-10</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>0.008</v>
+        <v>-0.0397</v>
       </c>
     </row>
     <row r="301">
@@ -4338,11 +4338,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-05-09</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>-0.0041</v>
       </c>
     </row>
     <row r="302">
@@ -4351,11 +4351,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>-0.06909999999999999</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="303">
@@ -4364,11 +4364,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>2022-05-05</t>
+          <t>2022-05-07</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>-0.0795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -4377,11 +4377,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>2022-05-04</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>0.1144</v>
+        <v>-0.06909999999999999</v>
       </c>
     </row>
     <row r="305">
@@ -4390,11 +4390,11 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>2022-05-03</t>
+          <t>2022-05-05</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0.0706</v>
+        <v>-0.0795</v>
       </c>
     </row>
     <row r="306">
@@ -4403,11 +4403,11 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>2022-05-02</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>0.1056</v>
+        <v>0.1144</v>
       </c>
     </row>
     <row r="307">
@@ -4416,11 +4416,11 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2022-05-03</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0.0653</v>
+        <v>0.0706</v>
       </c>
     </row>
     <row r="308">
@@ -4429,11 +4429,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>2022-04-30</t>
+          <t>2022-05-02</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>0.1101</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="309">
@@ -4442,11 +4442,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>0.1079</v>
+        <v>0.0653</v>
       </c>
     </row>
     <row r="310">
@@ -4455,11 +4455,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2022-04-30</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0.0906</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="311">
@@ -4468,11 +4468,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2022-04-27</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>0.0958</v>
+        <v>0.1079</v>
       </c>
     </row>
     <row r="312">
@@ -4481,11 +4481,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-04-28</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>0.099</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="313">
@@ -4494,11 +4494,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2022-04-27</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>0.1296</v>
+        <v>0.0958</v>
       </c>
     </row>
     <row r="314">
@@ -4507,11 +4507,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>2022-04-24</t>
+          <t>2022-04-26</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>0.1031</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="315">
@@ -4520,11 +4520,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>2022-04-23</t>
+          <t>2022-04-25</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>0.1118</v>
+        <v>0.1296</v>
       </c>
     </row>
     <row r="316">
@@ -4533,11 +4533,11 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>2022-04-22</t>
+          <t>2022-04-24</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>0.1024</v>
+        <v>0.1031</v>
       </c>
     </row>
     <row r="317">
@@ -4546,11 +4546,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>2022-04-21</t>
+          <t>2022-04-23</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0.0916</v>
+        <v>0.1118</v>
       </c>
     </row>
     <row r="318">
@@ -4559,11 +4559,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>2022-04-20</t>
+          <t>2022-04-22</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>0.0491</v>
+        <v>0.1024</v>
       </c>
     </row>
     <row r="319">
@@ -4572,11 +4572,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>2022-04-19</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>0.115</v>
+        <v>0.0916</v>
       </c>
     </row>
     <row r="320">
@@ -4585,11 +4585,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>2022-04-18</t>
+          <t>2022-04-20</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>0.08939999999999999</v>
+        <v>0.0491</v>
       </c>
     </row>
     <row r="321">
@@ -4598,11 +4598,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>2022-04-17</t>
+          <t>2022-04-19</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>0.0408</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="322">
@@ -4611,11 +4611,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>2022-04-16</t>
+          <t>2022-04-18</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>0.0524</v>
+        <v>0.08939999999999999</v>
       </c>
     </row>
     <row r="323">
@@ -4624,11 +4624,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2022-04-17</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>0.0688</v>
+        <v>0.0408</v>
       </c>
     </row>
     <row r="324">
@@ -4637,11 +4637,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
+          <t>2022-04-16</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0.0979</v>
+        <v>0.0524</v>
       </c>
     </row>
     <row r="325">
@@ -4650,11 +4650,11 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>2022-04-13</t>
+          <t>2022-04-15</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0.0767</v>
+        <v>0.0688</v>
       </c>
     </row>
     <row r="326">
@@ -4663,11 +4663,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>2022-04-12</t>
+          <t>2022-04-14</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>0.1309</v>
+        <v>0.0979</v>
       </c>
     </row>
     <row r="327">
@@ -4676,11 +4676,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>0.1099</v>
+        <v>0.0767</v>
       </c>
     </row>
     <row r="328">
@@ -4689,11 +4689,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>2022-04-10</t>
+          <t>2022-04-12</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0.0776</v>
+        <v>0.1309</v>
       </c>
     </row>
     <row r="329">
@@ -4702,11 +4702,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>2022-04-09</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>0.1144</v>
+        <v>0.1099</v>
       </c>
     </row>
     <row r="330">
@@ -4715,11 +4715,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-04-10</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0.1078</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="331">
@@ -4728,11 +4728,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>2022-04-07</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>0.1012</v>
+        <v>0.1144</v>
       </c>
     </row>
     <row r="332">
@@ -4741,11 +4741,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-04-08</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>0.1095</v>
+        <v>0.1078</v>
       </c>
     </row>
     <row r="333">
@@ -4754,11 +4754,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>2022-04-05</t>
+          <t>2022-04-07</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>0.0824</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="334">
@@ -4767,11 +4767,11 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>2022-04-04</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>0.1167</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="335">
@@ -4780,11 +4780,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>2022-04-03</t>
+          <t>2022-04-05</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0.1441</v>
+        <v>0.0824</v>
       </c>
     </row>
     <row r="336">
@@ -4793,11 +4793,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>0.1572</v>
+        <v>0.1167</v>
       </c>
     </row>
     <row r="337">
@@ -4806,11 +4806,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-03</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>0.1554</v>
+        <v>0.1441</v>
       </c>
     </row>
     <row r="338">
@@ -4819,11 +4819,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>0.1949</v>
+        <v>0.1572</v>
       </c>
     </row>
     <row r="339">
@@ -4832,11 +4832,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>0.1323</v>
+        <v>0.1554</v>
       </c>
     </row>
     <row r="340">
@@ -4845,11 +4845,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>2022-03-29</t>
+          <t>2022-03-31</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>0.1975</v>
+        <v>0.1949</v>
       </c>
     </row>
     <row r="341">
@@ -4858,11 +4858,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>2022-03-28</t>
+          <t>2022-03-30</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0.2482</v>
+        <v>0.1323</v>
       </c>
     </row>
     <row r="342">
@@ -4871,11 +4871,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>2022-03-27</t>
+          <t>2022-03-29</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>0.2114</v>
+        <v>0.1975</v>
       </c>
     </row>
     <row r="343">
@@ -4884,11 +4884,11 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>2022-03-26</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0.194</v>
+        <v>0.2482</v>
       </c>
     </row>
     <row r="344">
@@ -4897,11 +4897,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>2022-03-25</t>
+          <t>2022-03-27</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>0.2336</v>
+        <v>0.2114</v>
       </c>
     </row>
     <row r="345">
@@ -4910,11 +4910,11 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>2022-03-24</t>
+          <t>2022-03-26</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0.2267</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="346">
@@ -4923,11 +4923,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>2022-03-23</t>
+          <t>2022-03-25</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>0.2222</v>
+        <v>0.2336</v>
       </c>
     </row>
     <row r="347">
@@ -4936,11 +4936,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>2022-03-22</t>
+          <t>2022-03-24</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0.1787</v>
+        <v>0.2267</v>
       </c>
     </row>
     <row r="348">
@@ -4949,11 +4949,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0.1956</v>
+        <v>0.2222</v>
       </c>
     </row>
     <row r="349">
@@ -4962,11 +4962,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>2022-03-20</t>
+          <t>2022-03-22</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0.2856</v>
+        <v>0.1787</v>
       </c>
     </row>
     <row r="350">
@@ -4975,11 +4975,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>2022-03-19</t>
+          <t>2022-03-21</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>0.3167</v>
+        <v>0.1956</v>
       </c>
     </row>
     <row r="351">
@@ -4988,11 +4988,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-03-20</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0.2625</v>
+        <v>0.2856</v>
       </c>
     </row>
     <row r="352">
@@ -5001,11 +5001,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
+          <t>2022-03-19</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>0.2443</v>
+        <v>0.3167</v>
       </c>
     </row>
     <row r="353">
@@ -5014,11 +5014,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>2022-03-16</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0.2227</v>
+        <v>0.2625</v>
       </c>
     </row>
     <row r="354">
@@ -5027,11 +5027,11 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2022-03-17</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>0.321</v>
+        <v>0.2443</v>
       </c>
     </row>
     <row r="355">
@@ -5040,11 +5040,11 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2022-03-16</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>0.2696</v>
+        <v>0.2227</v>
       </c>
     </row>
     <row r="356">
@@ -5053,11 +5053,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>2022-03-13</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0.2479</v>
+        <v>0.321</v>
       </c>
     </row>
     <row r="357">
@@ -5066,11 +5066,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>2022-03-12</t>
+          <t>2022-03-14</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>0.309</v>
+        <v>0.2696</v>
       </c>
     </row>
     <row r="358">
@@ -5079,11 +5079,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>2022-03-11</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>0.2727</v>
+        <v>0.2479</v>
       </c>
     </row>
     <row r="359">
@@ -5092,11 +5092,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>2022-03-10</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0.2358</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="360">
@@ -5105,11 +5105,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>2022-03-09</t>
+          <t>2022-03-11</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>0.1648</v>
+        <v>0.2727</v>
       </c>
     </row>
     <row r="361">
@@ -5118,11 +5118,11 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>2022-03-08</t>
+          <t>2022-03-10</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>0.1972</v>
+        <v>0.2358</v>
       </c>
     </row>
     <row r="362">
@@ -5131,11 +5131,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>2022-03-07</t>
+          <t>2022-03-09</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>0.184</v>
+        <v>0.1648</v>
       </c>
     </row>
     <row r="363">
@@ -5144,11 +5144,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>2022-03-06</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>0.2236</v>
+        <v>0.1972</v>
       </c>
     </row>
     <row r="364">
@@ -5157,11 +5157,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>2022-03-05</t>
+          <t>2022-03-07</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>0.2281</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="365">
@@ -5170,11 +5170,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>2022-03-04</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0.0926</v>
+        <v>0.2236</v>
       </c>
     </row>
     <row r="366">
@@ -5183,11 +5183,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-03-05</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>0.1828</v>
+        <v>0.2281</v>
       </c>
     </row>
     <row r="367">
@@ -5196,11 +5196,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-03-04</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>-0.1645</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="368">
@@ -5209,11 +5209,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>2022-03-01</t>
+          <t>2022-03-03</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0.1101</v>
+        <v>0.1828</v>
       </c>
     </row>
     <row r="369">
@@ -5222,11 +5222,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-03-02</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0.0476</v>
+        <v>-0.1645</v>
       </c>
     </row>
     <row r="370">
@@ -5235,11 +5235,11 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>2022-02-27</t>
+          <t>2022-03-01</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>-0.0147</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="371">
@@ -5248,11 +5248,11 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>2022-02-26</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>0.1994</v>
+        <v>0.0476</v>
       </c>
     </row>
     <row r="372">
@@ -5261,11 +5261,11 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>2022-02-25</t>
+          <t>2022-02-27</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0.0968</v>
+        <v>-0.0147</v>
       </c>
     </row>
     <row r="373">
@@ -5274,11 +5274,11 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>2022-02-24</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>0.1217</v>
+        <v>0.1994</v>
       </c>
     </row>
     <row r="374">
@@ -5287,11 +5287,11 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>2022-02-23</t>
+          <t>2022-02-25</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>-0.0034</v>
+        <v>0.0968</v>
       </c>
     </row>
     <row r="375">
@@ -5300,11 +5300,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>2022-02-22</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>0.2746</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="376">
@@ -5313,11 +5313,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>2022-02-21</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0.7096</v>
+        <v>-0.0034</v>
       </c>
     </row>
     <row r="377">
@@ -5326,11 +5326,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>2022-02-20</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0.3055</v>
+        <v>0.2746</v>
       </c>
     </row>
     <row r="378">
@@ -5339,11 +5339,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>2022-02-19</t>
+          <t>2022-02-21</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>0.7096</v>
       </c>
     </row>
     <row r="379">
@@ -5352,11 +5352,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>2022-02-18</t>
+          <t>2022-02-20</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>-0.0251</v>
+        <v>0.3055</v>
       </c>
     </row>
     <row r="380">
@@ -5365,11 +5365,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>2022-02-17</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>0.158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -5378,11 +5378,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>2022-02-16</t>
+          <t>2022-02-18</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>0.0582</v>
+        <v>-0.0251</v>
       </c>
     </row>
     <row r="382">
@@ -5391,11 +5391,11 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-02-17</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0.1146</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="383">
@@ -5404,11 +5404,11 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>2022-02-14</t>
+          <t>2022-02-16</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>-0.0357</v>
+        <v>0.0582</v>
       </c>
     </row>
     <row r="384">
@@ -5417,11 +5417,11 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>2022-02-13</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>0.1146</v>
       </c>
     </row>
     <row r="385">
@@ -5430,11 +5430,11 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>2022-02-12</t>
+          <t>2022-02-14</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>0.1789</v>
+        <v>-0.0357</v>
       </c>
     </row>
     <row r="386">
@@ -5443,11 +5443,11 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>2022-02-11</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>0.1136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -5456,11 +5456,11 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-02-12</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>0.0293</v>
+        <v>0.1789</v>
       </c>
     </row>
     <row r="388">
@@ -5469,11 +5469,11 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>2022-02-09</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="C388" t="n">
-        <v>0.0944</v>
+        <v>0.1136</v>
       </c>
     </row>
     <row r="389">
@@ -5482,11 +5482,11 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>2022-02-08</t>
+          <t>2022-02-10</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>0.0786</v>
+        <v>0.0293</v>
       </c>
     </row>
     <row r="390">
@@ -5495,11 +5495,11 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>2022-02-07</t>
+          <t>2022-02-09</t>
         </is>
       </c>
       <c r="C390" t="n">
-        <v>0.0428</v>
+        <v>0.0944</v>
       </c>
     </row>
     <row r="391">
@@ -5508,11 +5508,11 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>2022-02-06</t>
+          <t>2022-02-08</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0.154</v>
+        <v>0.0786</v>
       </c>
     </row>
     <row r="392">
@@ -5521,11 +5521,11 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>2022-02-05</t>
+          <t>2022-02-07</t>
         </is>
       </c>
       <c r="C392" t="n">
-        <v>0.0533</v>
+        <v>0.0428</v>
       </c>
     </row>
     <row r="393">
@@ -5534,11 +5534,11 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>2022-02-04</t>
+          <t>2022-02-06</t>
         </is>
       </c>
       <c r="C393" t="n">
-        <v>0.1201</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="394">
@@ -5547,11 +5547,11 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>2022-02-03</t>
+          <t>2022-02-05</t>
         </is>
       </c>
       <c r="C394" t="n">
-        <v>-0.0048</v>
+        <v>0.0533</v>
       </c>
     </row>
     <row r="395">
@@ -5560,11 +5560,11 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>2022-02-02</t>
+          <t>2022-02-04</t>
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="396">
@@ -5573,11 +5573,11 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>2022-02-01</t>
+          <t>2022-02-03</t>
         </is>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>-0.0048</v>
       </c>
     </row>
     <row r="397">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-02-02</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>2022-01-29</t>
+          <t>2022-02-01</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -5612,7 +5612,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>2022-01-28</t>
+          <t>2022-01-31</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -5625,11 +5625,11 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>2022-01-27</t>
+          <t>2022-01-29</t>
         </is>
       </c>
       <c r="C400" t="n">
-        <v>0.2936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>2022-01-26</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -5651,11 +5651,11 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>2022-01-25</t>
+          <t>2022-01-27</t>
         </is>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>0.2936</v>
       </c>
     </row>
     <row r="403">
@@ -5664,11 +5664,11 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>2022-01-21</t>
+          <t>2022-01-26</t>
         </is>
       </c>
       <c r="C403" t="n">
-        <v>0.367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -5677,11 +5677,11 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>2022-01-20</t>
+          <t>2022-01-25</t>
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0.1637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -5690,11 +5690,11 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2022-01-21</t>
         </is>
       </c>
       <c r="C405" t="n">
-        <v>0.1167</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="406">
@@ -5703,11 +5703,11 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>2022-01-18</t>
+          <t>2022-01-20</t>
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0.09</v>
+        <v>0.1637</v>
       </c>
     </row>
     <row r="407">
@@ -5716,11 +5716,11 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>2022-01-17</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0.0897</v>
+        <v>0.1167</v>
       </c>
     </row>
     <row r="408">
@@ -5729,11 +5729,11 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>2022-01-16</t>
+          <t>2022-01-18</t>
         </is>
       </c>
       <c r="C408" t="n">
-        <v>0.0969</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="409">
@@ -5742,11 +5742,11 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>2022-01-15</t>
+          <t>2022-01-17</t>
         </is>
       </c>
       <c r="C409" t="n">
-        <v>0.1123</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="410">
@@ -5755,11 +5755,11 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>2022-01-14</t>
+          <t>2022-01-16</t>
         </is>
       </c>
       <c r="C410" t="n">
-        <v>0.1335</v>
+        <v>0.0969</v>
       </c>
     </row>
     <row r="411">
@@ -5768,11 +5768,11 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>2022-01-13</t>
+          <t>2022-01-15</t>
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0.1219</v>
+        <v>0.1123</v>
       </c>
     </row>
     <row r="412">
@@ -5781,11 +5781,11 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>2022-01-12</t>
+          <t>2022-01-14</t>
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0.0837</v>
+        <v>0.1335</v>
       </c>
     </row>
     <row r="413">
@@ -5794,11 +5794,11 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>2022-01-11</t>
+          <t>2022-01-13</t>
         </is>
       </c>
       <c r="C413" t="n">
-        <v>0.0359</v>
+        <v>0.1219</v>
       </c>
     </row>
     <row r="414">
@@ -5807,11 +5807,11 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>2022-01-10</t>
+          <t>2022-01-12</t>
         </is>
       </c>
       <c r="C414" t="n">
-        <v>0.1146</v>
+        <v>0.0837</v>
       </c>
     </row>
     <row r="415">
@@ -5820,11 +5820,11 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>2022-01-09</t>
+          <t>2022-01-11</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0.1785</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="416">
@@ -5833,11 +5833,11 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>2022-01-08</t>
+          <t>2022-01-10</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>0.1673</v>
+        <v>0.1146</v>
       </c>
     </row>
     <row r="417">
@@ -5846,11 +5846,11 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>2022-01-07</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0.1411</v>
+        <v>0.1785</v>
       </c>
     </row>
     <row r="418">
@@ -5859,11 +5859,11 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>2022-01-06</t>
+          <t>2022-01-08</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0.2813</v>
+        <v>0.1673</v>
       </c>
     </row>
     <row r="419">
@@ -5872,11 +5872,11 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>2022-01-05</t>
+          <t>2022-01-07</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0.1483</v>
+        <v>0.1411</v>
       </c>
     </row>
     <row r="420">
@@ -5885,11 +5885,11 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>2022-01-04</t>
+          <t>2022-01-06</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0.131</v>
+        <v>0.2813</v>
       </c>
     </row>
     <row r="421">
@@ -5898,11 +5898,11 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>2022-01-03</t>
+          <t>2022-01-05</t>
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0.1272</v>
+        <v>0.1483</v>
       </c>
     </row>
     <row r="422">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>2022-01-02</t>
+          <t>2022-01-04</t>
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0.2067</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="423">
@@ -5924,11 +5924,11 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>2022-01-01</t>
+          <t>2022-01-03</t>
         </is>
       </c>
       <c r="C423" t="n">
-        <v>0.1297</v>
+        <v>0.1272</v>
       </c>
     </row>
     <row r="424">
@@ -5937,11 +5937,11 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>2022-01-02</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0.1685</v>
+        <v>0.2067</v>
       </c>
     </row>
     <row r="425">
@@ -5950,11 +5950,11 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>2021-12-30</t>
+          <t>2022-01-01</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>0.125</v>
+        <v>0.1297</v>
       </c>
     </row>
     <row r="426">
@@ -5963,11 +5963,11 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>2021-12-29</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0.2831</v>
+        <v>0.1685</v>
       </c>
     </row>
     <row r="427">
@@ -5976,11 +5976,11 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>2021-12-28</t>
+          <t>2021-12-30</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>0.2399</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="428">
@@ -5989,11 +5989,11 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2021-12-29</t>
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0.2568</v>
+        <v>0.2831</v>
       </c>
     </row>
     <row r="429">
@@ -6002,11 +6002,11 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>2021-12-26</t>
+          <t>2021-12-28</t>
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0.2019</v>
+        <v>0.2399</v>
       </c>
     </row>
     <row r="430">
@@ -6015,11 +6015,11 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>2021-12-25</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>0.2921</v>
+        <v>0.2568</v>
       </c>
     </row>
     <row r="431">
@@ -6028,11 +6028,11 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>2021-12-24</t>
+          <t>2021-12-26</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>0.25</v>
+        <v>0.2019</v>
       </c>
     </row>
     <row r="432">
@@ -6041,11 +6041,11 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>2021-12-23</t>
+          <t>2021-12-25</t>
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0.177</v>
+        <v>0.2921</v>
       </c>
     </row>
     <row r="433">
@@ -6054,11 +6054,11 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>2021-12-22</t>
+          <t>2021-12-24</t>
         </is>
       </c>
       <c r="C433" t="n">
-        <v>0.1829</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="434">
@@ -6067,10 +6067,36 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
+          <t>2021-12-23</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>0.177</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2021-12-22</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>0.1829</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
           <t>2021-12-21</t>
         </is>
       </c>
-      <c r="C434" t="n">
+      <c r="C436" t="n">
         <v>0.2003</v>
       </c>
     </row>
